--- a/biology/Histoire de la zoologie et de la botanique/Michel_Honoré_Vincelot/Michel_Honoré_Vincelot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michel_Honoré_Vincelot/Michel_Honoré_Vincelot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michel_Honor%C3%A9_Vincelot</t>
+          <t>Michel_Honoré_Vincelot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chanoine Michel Honoré Vincelot est un ornithologue amateur français, né en 1815 à Saumur et mort en 1877 à Angers.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michel_Honor%C3%A9_Vincelot</t>
+          <t>Michel_Honoré_Vincelot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 13 février 1815, Michel Vincelot est le fils d'un boulanger de Saumur[1] qui meurt alors qu'il a cinq ans. Il fait ses études à Angers et rentre au séminaire. Ordonné prêtre le 16 octobre 1838, il est ensuite appelé à la direction de l'Institution Saint-Julien d'Angers, poste qu'il occupe jusqu'en 1850. Il est nommé chanoine honoraire de la cathédrale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 13 février 1815, Michel Vincelot est le fils d'un boulanger de Saumur qui meurt alors qu'il a cinq ans. Il fait ses études à Angers et rentre au séminaire. Ordonné prêtre le 16 octobre 1838, il est ensuite appelé à la direction de l'Institution Saint-Julien d'Angers, poste qu'il occupe jusqu'en 1850. Il est nommé chanoine honoraire de la cathédrale.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michel_Honor%C3%A9_Vincelot</t>
+          <t>Michel_Honoré_Vincelot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1855 : Tableau synoptique pour servir à l'étude de l'ornithologie et de l'oologie de Maine-et-Loire, Annales de la Société linnéenne du département de Maine-et-Loire.
 1859 : Essais étymologiques sur l'ornithologie de Maine-et-Loire, ou les Mœurs des oiseaux expliquées par leurs noms (impr. de Cosnier et Lachèse, Angers) – réédité en enrichi en 1865.
